--- a/Analysis/OneByOne AllCells PV_Mod FR PV Act_DeAct 6-100P/FR_Preferred_Orientation_Data_All_PV_Mod.xlsx
+++ b/Analysis/OneByOne AllCells PV_Mod FR PV Act_DeAct 6-100P/FR_Preferred_Orientation_Data_All_PV_Mod.xlsx
@@ -13,7 +13,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>PV_Act_6%</t>
+  </si>
+  <si>
+    <t>PV_Act_12%</t>
+  </si>
+  <si>
+    <t>PV_Act_18%</t>
+  </si>
+  <si>
+    <t>PV_Act_25%</t>
+  </si>
+  <si>
+    <t>PV_Act_50%</t>
+  </si>
+  <si>
+    <t>PV_Act_75%</t>
+  </si>
+  <si>
+    <t>PV_Act_100%</t>
+  </si>
+  <si>
+    <t>PV_DeAct_6%</t>
+  </si>
+  <si>
+    <t>PV_DeAct_12%</t>
+  </si>
+  <si>
+    <t>PV_DeAct_18%</t>
+  </si>
+  <si>
+    <t>PV_DeAct_25%</t>
+  </si>
+  <si>
+    <t>PV_DeAct_50%</t>
+  </si>
+  <si>
+    <t>PV_DeAct_75%</t>
+  </si>
+  <si>
+    <t>PV_DeAct_100%</t>
+  </si>
   <si>
     <t>Control</t>
   </si>
@@ -78,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -87,13 +132,15 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,49 +172,49 @@
   <sheetData>
     <row r="1">
       <c r="D1" s="0" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
